--- a/GANTT Chart.xlsx
+++ b/GANTT Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GitHub Clones\NutriPal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hswij\Documents\GitHub\NutriMob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5482620-93EB-4260-B792-FB7161320B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A7287-B1E1-4F27-BA15-3869ACB1A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1908" yWindow="-12708" windowWidth="20376" windowHeight="12816" xr2:uid="{491AC0D1-CAEE-4A0E-902E-D5FD6F2A0033}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{491AC0D1-CAEE-4A0E-902E-D5FD6F2A0033}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1240,7 +1240,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$8</c15:sqref>
@@ -1303,7 +1303,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1523,7 +1523,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-8AF8-4EC4-AD53-637149C56733}"/>
                   </c:ext>
@@ -2582,15 +2582,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727C557-43ED-41D3-9C41-BE59C3EE3972}">
   <dimension ref="A2:FF47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="77.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="7" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:162" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:162" x14ac:dyDescent="0.25">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:162" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:162" x14ac:dyDescent="0.25">
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:162" x14ac:dyDescent="0.25">
@@ -3705,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:162" x14ac:dyDescent="0.25">
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:162" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:162" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:162" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:162" x14ac:dyDescent="0.25">
@@ -3956,11 +3956,11 @@
         <v>45512</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" ref="D20:D39" si="4">IF(B21="","",C21-B21)</f>
+        <f t="shared" ref="D21:D39" si="4">IF(B21="","",C21-B21)</f>
         <v>1</v>
       </c>
       <c r="E21" s="10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:162" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:162" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:162" x14ac:dyDescent="0.25">
